--- a/Friobom/Engineering/data/excel_files/3026-227_F.xlsx
+++ b/Friobom/Engineering/data/excel_files/3026-227_F.xlsx
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>61</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>45286</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>45265</v>
       </c>
       <c r="V2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W2" t="n">
         <v>60</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>646.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46.197</v>
+        <v>43.857</v>
       </c>
       <c r="E3" t="n">
-        <v>1468</v>
+        <v>564</v>
       </c>
       <c r="F3" t="n">
-        <v>564</v>
+        <v>1042</v>
       </c>
       <c r="G3" t="n">
-        <v>1042</v>
+        <v>2385</v>
       </c>
       <c r="H3" t="n">
-        <v>2352</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>5426</v>
+        <v>3997</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -694,22 +694,22 @@
         <v>2768</v>
       </c>
       <c r="N3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="Q3" t="n">
-        <v>2442</v>
+        <v>2409</v>
       </c>
       <c r="R3" t="n">
-        <v>52.86</v>
+        <v>54.93</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>45265</v>
       </c>
       <c r="V3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W3" t="n">
         <v>4800</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>21329.28</v>
+        <v>48.93</v>
       </c>
     </row>
     <row r="4">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69.846</v>
+        <v>65.747</v>
       </c>
       <c r="E4" t="n">
-        <v>2271</v>
+        <v>1027</v>
       </c>
       <c r="F4" t="n">
-        <v>1027</v>
+        <v>1132</v>
       </c>
       <c r="G4" t="n">
-        <v>1132</v>
+        <v>3824</v>
       </c>
       <c r="H4" t="n">
-        <v>3752</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>8182</v>
+        <v>6002</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -773,25 +773,25 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5298</v>
+        <v>5222</v>
       </c>
       <c r="N4" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="Q4" t="n">
-        <v>4217</v>
+        <v>4162</v>
       </c>
       <c r="R4" t="n">
-        <v>60.38</v>
+        <v>63.3</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>45265</v>
       </c>
       <c r="V4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W4" t="n">
         <v>7800</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>32491.09</v>
+        <v>160.27</v>
       </c>
     </row>
     <row r="5">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>114.094</v>
+        <v>117.571</v>
       </c>
       <c r="E5" t="n">
-        <v>2746</v>
+        <v>1762</v>
       </c>
       <c r="F5" t="n">
-        <v>1762</v>
+        <v>1922</v>
       </c>
       <c r="G5" t="n">
-        <v>1922</v>
+        <v>7015</v>
       </c>
       <c r="H5" t="n">
-        <v>6943</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>13373</v>
+        <v>10743</v>
       </c>
       <c r="J5" t="n">
         <v>16</v>
@@ -855,25 +855,25 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="N5" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="Q5" t="n">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>45265</v>
       </c>
       <c r="V5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W5" t="n">
         <v>6000</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>60435.78</v>
+        <v>362.35</v>
       </c>
     </row>
     <row r="6">
@@ -958,13 +958,13 @@
         <v>45047</v>
       </c>
       <c r="T6" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>44509</v>
       </c>
       <c r="V6" t="n">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="W6" t="n">
         <v>600</v>
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31.54</v>
+        <v>31.554</v>
       </c>
       <c r="E7" t="n">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="F7" t="n">
-        <v>872</v>
+        <v>547</v>
       </c>
       <c r="G7" t="n">
-        <v>547</v>
+        <v>916</v>
       </c>
       <c r="H7" t="n">
-        <v>892</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
-        <v>3155</v>
+        <v>2373</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1847</v>
+        <v>1785</v>
       </c>
       <c r="N7" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1724</v>
+        <v>1643</v>
       </c>
       <c r="R7" t="n">
-        <v>54.66</v>
+        <v>52.07</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>45265</v>
       </c>
       <c r="V7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W7" t="n">
         <v>2760</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>6782.94</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="8">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.649</v>
+        <v>0.968</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H8" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>61</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
         <v>45286</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>45265</v>
       </c>
       <c r="V8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W8" t="n">
         <v>60</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>639.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.835</v>
+        <v>5.978</v>
       </c>
       <c r="E9" t="n">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="F9" t="n">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G9" t="n">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="H9" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>671</v>
+        <v>544</v>
       </c>
       <c r="J9" t="n">
         <v>16</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1195,22 +1195,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="R9" t="n">
-        <v>17.99</v>
+        <v>15.56</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>45265</v>
       </c>
       <c r="V9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W9" t="n">
         <v>360</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1945.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.009</v>
+        <v>3.462</v>
       </c>
       <c r="E10" t="n">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="F10" t="n">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H10" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>465</v>
+        <v>315</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="R10" t="n">
-        <v>99.03</v>
+        <v>112.94</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>45288</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>45265</v>
       </c>
       <c r="V10" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W10" t="n">
         <v>504</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>823.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
